--- a/biology/Botanique/Sisyrinchium/Sisyrinchium.xlsx
+++ b/biology/Botanique/Sisyrinchium/Sisyrinchium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sisyrinchium est un genre de plantes vivaces de la famille des Iridaceae.
 Il existe entre 70 et 150 espèces (selon les auteurs), toutes originaires du Nouveau Monde. Plusieurs des espèces des États-Unis sont menacées ou en danger d'extinction.  La taxonomie de ce genre est plutôt complexe, puisque plusieurs des espèces, telles que Sisyrinchium angustifolium, forment des complexes avec beaucoup de variétés désignées aussi comme des espèces. Certaines espèces, notamment Sisyrinchium douglasii, ont été transférées dans le genre Olsynium.
@@ -515,7 +527,9 @@
           <t>Liste d’espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sisyrinchium acre Mann
 Sisyrinchium albidum Raf.
